--- a/ponte_imortal.xlsx
+++ b/ponte_imortal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\5 semestre\polyBridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2528F8B1-B801-4073-88B0-608B2736D667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60938AF-0DE0-492E-95A8-8D40C31FADDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D40" sqref="D31:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +783,7 @@
         <v>4000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F2" s="7">
         <f>COUNT(A2:A1048576)</f>
@@ -801,7 +801,7 @@
         <v>4000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>4000000000</v>
       </c>
       <c r="D4" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
         <v>4000000000</v>
       </c>
       <c r="D5" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>4000000000</v>
       </c>
       <c r="D6" s="3">
-        <v>1.1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>4000000000</v>
       </c>
       <c r="D7" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>4000000000</v>
       </c>
       <c r="D8" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,7 +885,7 @@
         <v>4000000000</v>
       </c>
       <c r="D9" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>4000000000</v>
       </c>
       <c r="D10" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>4000000000</v>
       </c>
       <c r="D11" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,7 +927,7 @@
         <v>4000000000</v>
       </c>
       <c r="D12" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -941,7 +941,7 @@
         <v>4000000000</v>
       </c>
       <c r="D13" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
         <v>4000000000</v>
       </c>
       <c r="D14" s="3">
-        <v>1.1E-4</v>
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>4000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>1.1E-4</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -983,7 +983,7 @@
         <v>4000000000</v>
       </c>
       <c r="D16" s="3">
-        <v>1.1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,7 +1011,7 @@
         <v>4000000000</v>
       </c>
       <c r="D18" s="3">
-        <v>1.1E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,7 +1067,7 @@
         <v>4000000000</v>
       </c>
       <c r="D22" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>4000000000</v>
       </c>
       <c r="D23" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>4000000000</v>
       </c>
       <c r="D24" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>4000000000</v>
       </c>
       <c r="D25" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>4000000000</v>
       </c>
       <c r="D26" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1137,7 +1137,7 @@
         <v>4000000000</v>
       </c>
       <c r="D27" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>4000000000</v>
       </c>
       <c r="D28" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>4000000000</v>
       </c>
       <c r="D29" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,7 +1179,7 @@
         <v>4000000000</v>
       </c>
       <c r="D30" s="3">
-        <v>1.1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4000000000</v>
       </c>
       <c r="D31" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>4000000000</v>
       </c>
       <c r="D32" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>4000000000</v>
       </c>
       <c r="D33" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>4000000000</v>
       </c>
       <c r="D34" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>4000000000</v>
       </c>
       <c r="D35" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -1265,7 +1265,7 @@
         <v>4000000000</v>
       </c>
       <c r="D36" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1281,7 +1281,7 @@
         <v>4000000000</v>
       </c>
       <c r="D37" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -1297,7 +1297,7 @@
         <v>4000000000</v>
       </c>
       <c r="D38" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1313,7 +1313,7 @@
         <v>4000000000</v>
       </c>
       <c r="D39" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -1327,7 +1327,7 @@
         <v>4000000000</v>
       </c>
       <c r="D40" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>4000000000</v>
       </c>
       <c r="D41" s="3">
-        <v>1.1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="11">
-        <v>-1.0000000000000001E+50</v>
+        <v>-75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="9">
@@ -1396,14 +1396,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2">
         <f>C2</f>
-        <v>-1.0000000000000001E+50</v>
+        <v>-75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
